--- a/test/JiuLing.ExcelExport.Test/Template.xlsx
+++ b/test/JiuLing.ExcelExport.Test/Template.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JiuLing.ExcelExport\test\JiuLing.ExcelExport.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A053D6BF-F3B0-470B-98C6-66E224AA805B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9DC5D-6416-4802-829F-3D5C26F28FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="一年级" sheetId="1" r:id="rId1"/>
+    <sheet name="二年级" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +83,22 @@
   </si>
   <si>
     <t>%dtOther-Time-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt3-Class-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt3-Name-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt3-Score-list%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -422,8 +439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -507,4 +524,61 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF274B1B-E050-4091-91C6-3BFB8D891B3A}">
+  <dimension ref="E13:G15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+    </row>
+    <row r="14" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E13:G13"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/JiuLing.ExcelExport.Test/Template.xlsx
+++ b/test/JiuLing.ExcelExport.Test/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JiuLing.ExcelExport\test\JiuLing.ExcelExport.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2E9DC5D-6416-4802-829F-3D5C26F28FCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341FD97-FA58-49E1-A54A-29D3B0E0E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="3525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一年级" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -99,6 +99,18 @@
   </si>
   <si>
     <t>%dt3-Score-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt1-IsPass-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -151,11 +163,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -439,8 +454,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,6 +487,9 @@
       <c r="D2" t="s">
         <v>2</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -482,6 +500,18 @@
       </c>
       <c r="D3" t="s">
         <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <f>SUM(D3:INDEX(D:D,ROW()-1))</f>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -528,10 +558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF274B1B-E050-4091-91C6-3BFB8D891B3A}">
-  <dimension ref="E13:G15"/>
+  <dimension ref="E13:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,6 +603,15 @@
         <v>17</v>
       </c>
     </row>
+    <row r="16" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G16">
+        <f>SUM(G15:INDEX(G:G,ROW()-1))</f>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="E13:G13"/>

--- a/test/JiuLing.ExcelExport.Test/Template.xlsx
+++ b/test/JiuLing.ExcelExport.Test/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JiuLing.ExcelExport\test\JiuLing.ExcelExport.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8341FD97-FA58-49E1-A54A-29D3B0E0E2C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F904AEA-958D-42B8-84DB-D208A3A1580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="3525" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一年级" sheetId="1" r:id="rId1"/>
@@ -59,58 +59,59 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>%dt1-Name-list%</t>
+  </si>
+  <si>
+    <t>%dt1-Score-list%</t>
+  </si>
+  <si>
+    <t>%dt2-Time-list%</t>
+  </si>
+  <si>
+    <t>%dt2-Type-list%</t>
+  </si>
+  <si>
+    <t>%dtOther-Name-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>导出时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dtOther-Time-0%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二年级分数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt3-Class-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt3-Name-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt3-Score-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>%dt1-IsPass-list%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>%dt1-Class-list%</t>
-  </si>
-  <si>
-    <t>%dt1-Name-list%</t>
-  </si>
-  <si>
-    <t>%dt1-Score-list%</t>
-  </si>
-  <si>
-    <t>%dt2-Time-list%</t>
-  </si>
-  <si>
-    <t>%dt2-Type-list%</t>
-  </si>
-  <si>
-    <t>%dtOther-Name-0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dtOther-Time-0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>二年级分数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dt3-Class-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dt3-Name-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dt3-Score-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通过</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dt1-IsPass-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -167,10 +168,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -455,7 +456,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D9" sqref="D9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -468,11 +469,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -488,26 +489,26 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="C4" s="2" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="C4" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="D4">
         <f>SUM(D3:INDEX(D:D,ROW()-1))</f>
@@ -515,10 +516,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3"/>
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -531,18 +532,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" t="s">
         <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
         <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -575,11 +576,11 @@
   </cols>
   <sheetData>
     <row r="13" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
     </row>
     <row r="14" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E14" t="s">
@@ -594,18 +595,18 @@
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s">
         <v>15</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>16</v>
       </c>
-      <c r="G15" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="3" t="s">
-        <v>20</v>
+      <c r="F16" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="G16">
         <f>SUM(G15:INDEX(G:G,ROW()-1))</f>

--- a/test/JiuLing.ExcelExport.Test/Template.xlsx
+++ b/test/JiuLing.ExcelExport.Test/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Projects\JiuLing.ExcelExport\test\JiuLing.ExcelExport.Test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F904AEA-958D-42B8-84DB-D208A3A1580C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A17568-2905-4188-B839-E2C752014293}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4695" yWindow="2040" windowWidth="11550" windowHeight="9855" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="一年级" sheetId="1" r:id="rId1"/>
@@ -59,59 +59,63 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%dt1-Name-list%</t>
-  </si>
-  <si>
-    <t>%dt1-Score-list%</t>
-  </si>
-  <si>
-    <t>%dt2-Time-list%</t>
-  </si>
-  <si>
-    <t>%dt2-Type-list%</t>
-  </si>
-  <si>
-    <t>%dtOther-Name-0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>导出时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%dtOther-Time-0%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二年级分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%dt3-Class-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dt3-Name-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>%dt3-Score-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%dt1-IsPass-list%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>合计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>%dt1-Class-list%</t>
+    <t>{dt1}-{Class}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt1}-{Name}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt1}-{Score}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt1}-{IsPass}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dtOther}-{Time}-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dtOther}-{Name}-0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt2}-{Time}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt2}-{Type}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt3}-{Class}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt3}-{Name}-list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{dt3}-{Score}-list</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -455,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9:E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -489,26 +493,26 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D4">
         <f>SUM(D3:INDEX(D:D,ROW()-1))</f>
@@ -517,7 +521,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D9" s="3" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="1"/>
@@ -532,18 +536,18 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -561,8 +565,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF274B1B-E050-4091-91C6-3BFB8D891B3A}">
   <dimension ref="E13:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -577,7 +581,7 @@
   <sheetData>
     <row r="13" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E13" s="3" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
@@ -595,18 +599,18 @@
     </row>
     <row r="15" spans="5:7" x14ac:dyDescent="0.2">
       <c r="E15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F15" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="5:7" x14ac:dyDescent="0.2">
       <c r="F16" s="2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="G16">
         <f>SUM(G15:INDEX(G:G,ROW()-1))</f>
